--- a/experiment result/64_0.8_40_zs10_kappa_lp.xlsx
+++ b/experiment result/64_0.8_40_zs10_kappa_lp.xlsx
@@ -443,7 +443,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>0.01049139225386357</v>
+        <v>0.004581900358746848</v>
       </c>
     </row>
     <row r="3">
@@ -451,7 +451,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>0.01316335262327801</v>
+        <v>0.001337297166183603</v>
       </c>
     </row>
     <row r="4">
@@ -459,7 +459,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>0.02237352554256036</v>
+        <v>0.001518319290826503</v>
       </c>
     </row>
     <row r="5">
@@ -467,7 +467,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>0.02159207349741133</v>
+        <v>0.005533213270188715</v>
       </c>
     </row>
     <row r="6">
@@ -475,7 +475,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>0.03016951502872852</v>
+        <v>0.002993504057081524</v>
       </c>
     </row>
     <row r="7">
@@ -483,7 +483,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>0.01747201233838754</v>
+        <v>0.01133293989609917</v>
       </c>
     </row>
     <row r="8">
@@ -491,7 +491,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>0.01434326489197203</v>
+        <v>0.0009964214761093875</v>
       </c>
     </row>
     <row r="9">
@@ -499,7 +499,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>0.01945470548189179</v>
+        <v>0.00502022114696566</v>
       </c>
     </row>
     <row r="10">
@@ -507,7 +507,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>0.02370240526287779</v>
+        <v>0.01319393508940573</v>
       </c>
     </row>
     <row r="11">
@@ -515,7 +515,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>0.007948442403970909</v>
+        <v>0.002386022841291147</v>
       </c>
     </row>
     <row r="12">
@@ -523,7 +523,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>0.02099349366441595</v>
+        <v>0.02520332963829448</v>
       </c>
     </row>
     <row r="13">
@@ -531,7 +531,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>0.03079089805028197</v>
+        <v>0.05823289623111245</v>
       </c>
     </row>
     <row r="14">
@@ -539,7 +539,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>0.01268841193019708</v>
+        <v>0.01456967388012746</v>
       </c>
     </row>
     <row r="15">
@@ -547,7 +547,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>0.02493850307438513</v>
+        <v>0.01462287149861382</v>
       </c>
     </row>
     <row r="16">
@@ -555,7 +555,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>0.01301667368956161</v>
+        <v>0.002184834187747501</v>
       </c>
     </row>
     <row r="17">
@@ -563,7 +563,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>0.01197056348677385</v>
+        <v>0.002123885694848119</v>
       </c>
     </row>
     <row r="18">
@@ -571,7 +571,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>0.0258601377311193</v>
+        <v>0.003710214327718936</v>
       </c>
     </row>
     <row r="19">
@@ -579,7 +579,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>0.007875424016675573</v>
+        <v>0.000427720146238092</v>
       </c>
     </row>
     <row r="20">
@@ -587,7 +587,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>0.008648634975981387</v>
+        <v>0.001304514345889223</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>0.02710449389158776</v>
+        <v>0.009392722607409724</v>
       </c>
     </row>
     <row r="22">
@@ -603,7 +603,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>0.01381828530300465</v>
+        <v>0.003296841023254555</v>
       </c>
     </row>
     <row r="23">
@@ -611,7 +611,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>0.01135784475965904</v>
+        <v>0.001112506586307232</v>
       </c>
     </row>
     <row r="24">
@@ -619,7 +619,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>0.0165859953781489</v>
+        <v>0.01132370664637098</v>
       </c>
     </row>
     <row r="25">
@@ -627,7 +627,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>0.007746919764974542</v>
+        <v>0.003415940607529756</v>
       </c>
     </row>
     <row r="26">
@@ -635,7 +635,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>0.01082497404436119</v>
+        <v>0.002234205770536732</v>
       </c>
     </row>
     <row r="27">
@@ -643,7 +643,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>0.02055953894591339</v>
+        <v>0.01433511940259173</v>
       </c>
     </row>
     <row r="28">
@@ -651,7 +651,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>0.01492260379867644</v>
+        <v>0.004072683122819614</v>
       </c>
     </row>
     <row r="29">
@@ -659,7 +659,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>0.01718534730005208</v>
+        <v>0.009000158173760953</v>
       </c>
     </row>
     <row r="30">
@@ -667,7 +667,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>0.02244268762504237</v>
+        <v>0.0278395940576714</v>
       </c>
     </row>
     <row r="31">
@@ -675,7 +675,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>0.03935081738108899</v>
+        <v>0.01461659203854498</v>
       </c>
     </row>
     <row r="32">
@@ -683,7 +683,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>0.003218284915353892</v>
+        <v>0.0005835381305718606</v>
       </c>
     </row>
     <row r="33">
@@ -691,7 +691,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>0.01168725554584884</v>
+        <v>0.0005026751069693242</v>
       </c>
     </row>
     <row r="34">
@@ -699,7 +699,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>0.02745500226885099</v>
+        <v>0.002869317344996222</v>
       </c>
     </row>
     <row r="35">
@@ -707,7 +707,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>0.009800783803922799</v>
+        <v>0.0007212549850794793</v>
       </c>
     </row>
     <row r="36">
@@ -715,7 +715,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>0.01190274674885128</v>
+        <v>0.003774194703517379</v>
       </c>
     </row>
     <row r="37">
@@ -723,7 +723,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>0.01364877823768977</v>
+        <v>0.001611696286061857</v>
       </c>
     </row>
     <row r="38">
@@ -731,7 +731,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>0.009229396373218979</v>
+        <v>0.0007355090381415568</v>
       </c>
     </row>
     <row r="39">
@@ -739,7 +739,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>0.01644893340210071</v>
+        <v>0.001095703207122857</v>
       </c>
     </row>
     <row r="40">
@@ -747,7 +747,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>0.01322563435679109</v>
+        <v>0.00285218530952417</v>
       </c>
     </row>
     <row r="41">
@@ -755,7 +755,7 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>0.02539649247262479</v>
+        <v>0.0118548279001145</v>
       </c>
     </row>
     <row r="42">
@@ -763,7 +763,7 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>0.02776424046820015</v>
+        <v>0.03485765701959338</v>
       </c>
     </row>
     <row r="43">
@@ -771,7 +771,7 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>0.007463883401400406</v>
+        <v>0.001459525937900311</v>
       </c>
     </row>
     <row r="44">
@@ -779,7 +779,7 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>0.01623808116604167</v>
+        <v>0.008045996035687</v>
       </c>
     </row>
     <row r="45">
@@ -787,7 +787,7 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>0.01620387656427085</v>
+        <v>0.00155502097697977</v>
       </c>
     </row>
     <row r="46">
@@ -795,7 +795,7 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>0.01962855657957953</v>
+        <v>0.005584356398943978</v>
       </c>
     </row>
     <row r="47">
@@ -803,7 +803,7 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>0.01816097246004586</v>
+        <v>0.00197570359494272</v>
       </c>
     </row>
     <row r="48">
@@ -811,7 +811,7 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>0.02466811273382397</v>
+        <v>0.008786467713275008</v>
       </c>
     </row>
     <row r="49">
@@ -819,7 +819,7 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>0.007906265426104789</v>
+        <v>0.0004128190501893225</v>
       </c>
     </row>
     <row r="50">
@@ -827,7 +827,7 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>0.01937345635263384</v>
+        <v>0.01223311320589034</v>
       </c>
     </row>
     <row r="51">
@@ -835,7 +835,7 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>0.005632895915886151</v>
+        <v>0.0003684046025579427</v>
       </c>
     </row>
     <row r="52">
@@ -843,7 +843,7 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>0.01821400537886781</v>
+        <v>0.005900081997526988</v>
       </c>
     </row>
     <row r="53">
@@ -851,7 +851,7 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>0.01568916155714149</v>
+        <v>0.009535569797924829</v>
       </c>
     </row>
     <row r="54">
@@ -859,7 +859,7 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>0.002764089300063588</v>
+        <v>2.714963788507877e-05</v>
       </c>
     </row>
     <row r="55">
@@ -867,7 +867,7 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>0.009789495708487191</v>
+        <v>0.001284258694736133</v>
       </c>
     </row>
     <row r="56">
@@ -875,7 +875,7 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>0.01442541195189081</v>
+        <v>0.001863403536409068</v>
       </c>
     </row>
     <row r="57">
@@ -883,7 +883,7 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>0.01991411080953191</v>
+        <v>0.002793597470847367</v>
       </c>
     </row>
     <row r="58">
@@ -891,7 +891,7 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>0.01801264153127906</v>
+        <v>0.00206947903576031</v>
       </c>
     </row>
     <row r="59">
@@ -899,7 +899,7 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>0.01149740800317608</v>
+        <v>0.003775662199264698</v>
       </c>
     </row>
     <row r="60">
@@ -907,7 +907,7 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>0.02075331579876846</v>
+        <v>0.01232282090661882</v>
       </c>
     </row>
     <row r="61">
@@ -915,7 +915,7 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>0.01191966525561176</v>
+        <v>0.002118112450562625</v>
       </c>
     </row>
   </sheetData>
